--- a/biology/Zoologie/Colcarteria_kempseyi/Colcarteria_kempseyi.xlsx
+++ b/biology/Zoologie/Colcarteria_kempseyi/Colcarteria_kempseyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colcarteria kempseyi est une espèce d'araignées aranéomorphes de la famille des Desidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colcarteria kempseyi est une espèce d'araignées aranéomorphes de la famille des Desidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie[1]. Elle se rencontre dans la forêt nationale de Maria River.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie. Elle se rencontre dans la forêt nationale de Maria River.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 1,50 mm de long sur 1,06 mm et l'abdomen 1,5 mm de long sur 0,9 mm. La carapace de la femelle paratype mesure 1,73 mm de long sur 1,28 mm et l'abdomen 1,7 mm de long sur 1,8 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 1,50 mm de long sur 1,06 mm et l'abdomen 1,5 mm de long sur 0,9 mm. La carapace de la femelle paratype mesure 1,73 mm de long sur 1,28 mm et l'abdomen 1,7 mm de long sur 1,8 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, Kempsey.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gray, 1992 : New desid spiders (Araneae: Desidae) from New Caledonia and eastern Australia. Records of the Australian Museum, vol. 44, p. 253-262 (texte intégral).</t>
         </is>
